--- a/Shared Documentation/Luke's Documents/Clash of Cosplayers - Schedule Timeframe.xlsx
+++ b/Shared Documentation/Luke's Documents/Clash of Cosplayers - Schedule Timeframe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C2240950\Documents\GitHub\Project_Clash-of-Cosplayers\Shared Documentation\Luke's Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8FE518-AE72-4CD4-95D5-54CA9586D10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B3C96D-4F0B-4C76-860C-5FDD39F84902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="63">
   <si>
     <t>Concept</t>
   </si>
@@ -86,9 +86,6 @@
     <t>test materials</t>
   </si>
   <si>
-    <t>test &amp; find materials for use</t>
-  </si>
-  <si>
     <t>Sam &amp; Chaz</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
     <t>Improved</t>
   </si>
   <si>
-    <t>Started</t>
-  </si>
-  <si>
     <t>in-process</t>
   </si>
   <si>
@@ -216,13 +210,28 @@
   </si>
   <si>
     <t>Distribute Digitally</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>delayed</t>
+  </si>
+  <si>
+    <t>Assign Roles/tasks</t>
+  </si>
+  <si>
+    <t>download textures</t>
+  </si>
+  <si>
+    <t>Stage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +271,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -368,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -405,6 +421,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BD4154-D683-48E3-B727-AD028CFBFA14}">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,55 +760,58 @@
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="2" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>62</v>
+      </c>
       <c r="B2" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>0</v>
@@ -800,157 +820,161 @@
         <v>1</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="11"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="5" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="13"/>
+        <v>58</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="9"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="D8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="20"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="7"/>
+      <c r="B9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="9"/>
+        <v>58</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="D12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="9"/>
+        <v>35</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -958,153 +982,174 @@
         <v>3</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="10" t="s">
-        <v>34</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>17</v>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>3</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="B17" s="9" t="s">
-        <v>38</v>
+        <v>45</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="B19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>15</v>
+      <c r="B21" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>34</v>
-      </c>
+      <c r="B22" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="19" t="s">
+      <c r="F24" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1116,60 +1161,76 @@
       <c r="B31" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+      <c r="B32" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" s="19"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B40" s="9" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Shared Documentation/Luke's Documents/Clash of Cosplayers - Schedule Timeframe.xlsx
+++ b/Shared Documentation/Luke's Documents/Clash of Cosplayers - Schedule Timeframe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C2240950\Documents\GitHub\Project_Clash-of-Cosplayers\Shared Documentation\Luke's Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B3C96D-4F0B-4C76-860C-5FDD39F84902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E13786A-7318-4CF1-9431-72AC86E818EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="64">
   <si>
     <t>Concept</t>
   </si>
@@ -53,15 +53,9 @@
     <t>AI</t>
   </si>
   <si>
-    <t>Playarea</t>
-  </si>
-  <si>
     <t>Sam</t>
   </si>
   <si>
-    <t>Ragdoll/pyhsics</t>
-  </si>
-  <si>
     <t>knockback</t>
   </si>
   <si>
@@ -194,15 +188,9 @@
     <t>UI</t>
   </si>
   <si>
-    <t>Extra (skipable)</t>
-  </si>
-  <si>
     <t>Release</t>
   </si>
   <si>
-    <t>Pakage</t>
-  </si>
-  <si>
     <t>Luke</t>
   </si>
   <si>
@@ -225,6 +213,21 @@
   </si>
   <si>
     <t>Stage</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>Extra (skippable)</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>Ragdoll/physics</t>
+  </si>
+  <si>
+    <t>Play/test area</t>
   </si>
 </sst>
 </file>
@@ -744,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BD4154-D683-48E3-B727-AD028CFBFA14}">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,58 +763,58 @@
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>0</v>
@@ -820,18 +823,18 @@
         <v>1</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="5" t="s">
@@ -843,16 +846,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="11"/>
@@ -862,13 +865,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>1</v>
@@ -881,7 +884,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>1</v>
@@ -894,10 +897,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="5" t="s">
@@ -907,13 +910,13 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>1</v>
@@ -923,10 +926,10 @@
     </row>
     <row r="10" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G10" s="20"/>
     </row>
@@ -935,10 +938,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="5" t="s">
@@ -951,10 +954,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>1</v>
@@ -967,10 +970,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>1</v>
@@ -985,7 +988,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>1</v>
@@ -998,33 +1001,38 @@
         <v>3</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="F16" s="9"/>
+      <c r="G16" s="5" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>1</v>
@@ -1033,10 +1041,10 @@
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>1</v>
@@ -1045,13 +1053,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G19" s="7"/>
     </row>
@@ -1060,7 +1068,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>1</v>
@@ -1071,10 +1079,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F21" s="10"/>
     </row>
@@ -1083,10 +1091,10 @@
         <v>2</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F22" s="10"/>
     </row>
@@ -1095,13 +1103,13 @@
         <v>2</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1109,128 +1117,133 @@
         <v>2</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F32" s="9"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Shared Documentation/Luke's Documents/Clash of Cosplayers - Schedule Timeframe.xlsx
+++ b/Shared Documentation/Luke's Documents/Clash of Cosplayers - Schedule Timeframe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C2240950\Documents\GitHub\Project_Clash-of-Cosplayers\Shared Documentation\Luke's Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E13786A-7318-4CF1-9431-72AC86E818EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F31A9E-CD60-4F68-8938-6BD38595C84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="66">
   <si>
     <t>Concept</t>
   </si>
@@ -68,9 +68,6 @@
     <t>game-feel</t>
   </si>
   <si>
-    <t>variety</t>
-  </si>
-  <si>
     <t>Item-prototype</t>
   </si>
   <si>
@@ -176,12 +173,6 @@
     <t>Prototyping</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>iterate</t>
-  </si>
-  <si>
     <t>Visuals</t>
   </si>
   <si>
@@ -209,9 +200,6 @@
     <t>Assign Roles/tasks</t>
   </si>
   <si>
-    <t>download textures</t>
-  </si>
-  <si>
     <t>Stage</t>
   </si>
   <si>
@@ -228,6 +216,24 @@
   </si>
   <si>
     <t>Play/test area</t>
+  </si>
+  <si>
+    <t>Test/Iterate</t>
+  </si>
+  <si>
+    <t>Pitch slides ready</t>
+  </si>
+  <si>
+    <t>goal</t>
+  </si>
+  <si>
+    <t>Practise Pitch</t>
+  </si>
+  <si>
+    <t>ahead of schedule</t>
+  </si>
+  <si>
+    <t>extra variety</t>
   </si>
 </sst>
 </file>
@@ -286,7 +292,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,6 +365,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -387,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -425,6 +437,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -749,72 +762,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BD4154-D683-48E3-B727-AD028CFBFA14}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="12"/>
     <col min="2" max="2" width="17.7109375" style="9" customWidth="1"/>
-    <col min="3" max="18" width="10.7109375" style="12" customWidth="1"/>
+    <col min="3" max="8" width="10.7109375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="12" customWidth="1"/>
+    <col min="10" max="18" width="10.7109375" style="12" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>0</v>
@@ -823,18 +838,18 @@
         <v>1</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="5" t="s">
@@ -846,16 +861,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="11"/>
@@ -865,13 +880,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>1</v>
@@ -884,7 +899,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>1</v>
@@ -897,10 +912,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="5" t="s">
@@ -913,10 +928,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>1</v>
@@ -926,10 +941,10 @@
     </row>
     <row r="10" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="20"/>
     </row>
@@ -938,10 +953,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="5" t="s">
@@ -954,10 +969,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>1</v>
@@ -970,10 +985,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>1</v>
@@ -988,7 +1003,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>1</v>
@@ -1001,69 +1016,68 @@
         <v>3</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>3</v>
       </c>
@@ -1074,176 +1088,255 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>2</v>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>48</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F22" s="10"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F24" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" s="10" t="s">
+      <c r="B28" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="J32" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="J33" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
+      <c r="B34" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" s="9"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="7"/>
+      <c r="I35" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B37" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B39" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="M39" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="M41" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B42" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="N42" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B43" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Shared Documentation/Luke's Documents/Clash of Cosplayers - Schedule Timeframe.xlsx
+++ b/Shared Documentation/Luke's Documents/Clash of Cosplayers - Schedule Timeframe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C2240950\Documents\GitHub\Project_Clash-of-Cosplayers\Shared Documentation\Luke's Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LukeB\OneDrive\Documents\GitHub\Project_Clash-of-Cosplayers\Shared Documentation\Luke's Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F31A9E-CD60-4F68-8938-6BD38595C84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5631EE-97B0-43BA-87B0-6630FCEEACDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="66">
   <si>
     <t>Concept</t>
   </si>
@@ -399,26 +399,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -435,7 +431,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -762,18 +758,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BD4154-D683-48E3-B727-AD028CFBFA14}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="12"/>
-    <col min="2" max="2" width="17.7109375" style="9" customWidth="1"/>
-    <col min="3" max="8" width="10.7109375" style="12" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="12" customWidth="1"/>
-    <col min="10" max="18" width="10.7109375" style="12" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="17.7109375" style="4" customWidth="1"/>
+    <col min="3" max="8" width="10.7109375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="7" customWidth="1"/>
+    <col min="10" max="18" width="10.7109375" style="7" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -818,16 +814,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="20"/>
-    </row>
-    <row r="3" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
@@ -841,17 +837,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="22"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="5" t="s">
         <v>1</v>
       </c>
@@ -860,10 +856,10 @@
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -872,166 +868,162 @@
       <c r="E5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="11"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="11"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="10"/>
+      <c r="D8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="9"/>
       <c r="F8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="11"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="20"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="10"/>
+      <c r="D11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="9"/>
       <c r="F11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="7"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>51</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>51</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="H15" s="5" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F16" s="5" t="s">
@@ -1039,49 +1031,46 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>51</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="7"/>
+      <c r="F19" s="9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F20" s="5" t="s">
@@ -1089,16 +1078,16 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="10" t="s">
+      <c r="E21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -1109,13 +1098,13 @@
       <c r="A22" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="10"/>
+      <c r="E22" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="9"/>
       <c r="G22" s="1" t="s">
         <v>62</v>
       </c>
@@ -1124,13 +1113,13 @@
       <c r="A23" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="10" t="s">
+      <c r="E23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -1141,10 +1130,10 @@
       <c r="A24" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -1155,10 +1144,10 @@
       <c r="A25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -1169,15 +1158,15 @@
       <c r="A26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="G26" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -1187,38 +1176,38 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+    <row r="28" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I29" s="10" t="s">
+      <c r="I29" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1226,16 +1215,15 @@
       <c r="A32" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="7"/>
       <c r="J32" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
         <v>48</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -1246,66 +1234,65 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
+    <row r="34" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I34" s="23" t="s">
+      <c r="I34" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="M34" s="10" t="s">
+      <c r="M34" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="7"/>
-      <c r="I35" s="23" t="s">
+      <c r="I35" s="21" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
         <v>48</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+    <row r="39" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="M39" s="10" t="s">
+      <c r="M39" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="M40" s="10" t="s">
+      <c r="M40" s="9" t="s">
         <v>51</v>
       </c>
       <c r="N40" s="1" t="s">
@@ -1313,10 +1300,10 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="M41" s="10" t="s">
+      <c r="M41" s="9" t="s">
         <v>51</v>
       </c>
       <c r="N41" s="1" t="s">
@@ -1324,7 +1311,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="4" t="s">
         <v>50</v>
       </c>
       <c r="N42" s="1" t="s">
@@ -1332,7 +1319,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N43" s="1" t="s">
